--- a/Socheton/Contact_List.xlsx
+++ b/Socheton/Contact_List.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B781567D-E082-492F-B399-061D92D410BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FB67D8-3D84-4027-A613-828EF86C38BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SHED" sheetId="1" r:id="rId1"/>
     <sheet name="TMED" sheetId="3" r:id="rId2"/>
     <sheet name="TECHEDU" sheetId="4" r:id="rId3"/>
-    <sheet name="MFEW" sheetId="5" r:id="rId4"/>
+    <sheet name="MoEWOE" sheetId="5" r:id="rId4"/>
     <sheet name="BMET" sheetId="6" r:id="rId5"/>
     <sheet name="DYD" sheetId="7" r:id="rId6"/>
     <sheet name="SEIP" sheetId="8" r:id="rId7"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="456">
   <si>
     <t>WB</t>
   </si>
@@ -970,13 +970,450 @@
   </si>
   <si>
     <t>sknurislam@gmail.com</t>
+  </si>
+  <si>
+    <t>Directorate of Technical Education</t>
+  </si>
+  <si>
+    <t>Md. Sanowar Hossain</t>
+  </si>
+  <si>
+    <t>Director General</t>
+  </si>
+  <si>
+    <t>02-9110664</t>
+  </si>
+  <si>
+    <t>techedu09@gmail.com</t>
+  </si>
+  <si>
+    <t>Monjurul Kader</t>
+  </si>
+  <si>
+    <t>Director (Admin)</t>
+  </si>
+  <si>
+    <t>monjur_k10@yahoo.com</t>
+  </si>
+  <si>
+    <t>Kabir Al Asad</t>
+  </si>
+  <si>
+    <t>Director (Vocational)</t>
+  </si>
+  <si>
+    <t>kabiralasad1@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Akkas Ali Sheikh</t>
+  </si>
+  <si>
+    <t>Director (PIU)</t>
+  </si>
+  <si>
+    <t>ali.sheikh.dte@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Jahangir Alam</t>
+  </si>
+  <si>
+    <t>Director (Planning &amp; Development)</t>
+  </si>
+  <si>
+    <t>dte.planning.wing@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Shamshad Khalil</t>
+  </si>
+  <si>
+    <t>Assistant Director (AD1)</t>
+  </si>
+  <si>
+    <t>dtead1@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Jahedul kabir Khan</t>
+  </si>
+  <si>
+    <t>Assistant Director (AD2)</t>
+  </si>
+  <si>
+    <t>dte.ad2@gmail.com</t>
+  </si>
+  <si>
+    <t>Najmun Naher</t>
+  </si>
+  <si>
+    <t>Assistant Director (AD-3)</t>
+  </si>
+  <si>
+    <t>02-58150418</t>
+  </si>
+  <si>
+    <t>dtead3.2013@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Monjurul Islam</t>
+  </si>
+  <si>
+    <t>Assistant Director (AD4)</t>
+  </si>
+  <si>
+    <t>mdmonjurul@gmail.com</t>
+  </si>
+  <si>
+    <t>Fakir Mohammad Abdul Mannan</t>
+  </si>
+  <si>
+    <t>Assistant Director (AD-5)</t>
+  </si>
+  <si>
+    <t>Mohammad Sazzad Mufti</t>
+  </si>
+  <si>
+    <t>Assistant Director (Vocational)</t>
+  </si>
+  <si>
+    <t>dteadvoc@gmail.com</t>
+  </si>
+  <si>
+    <t>Bimal Kumar Misra</t>
+  </si>
+  <si>
+    <t>Assistant Director (AD7) DDO</t>
+  </si>
+  <si>
+    <t>01717111757, 01556377287</t>
+  </si>
+  <si>
+    <t>advocddo@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Habibur Rahman</t>
+  </si>
+  <si>
+    <t>Assistant Director (AD-09)</t>
+  </si>
+  <si>
+    <t>dte.piu.ad@gmail.com</t>
+  </si>
+  <si>
+    <t>Engr. Md. Khurshid Alam</t>
+  </si>
+  <si>
+    <t>Assistant Director (PIW)</t>
+  </si>
+  <si>
+    <t>02-58152208</t>
+  </si>
+  <si>
+    <t>dte.piw@gmail.com</t>
+  </si>
+  <si>
+    <t>Biplab Bikash Paul Choudhury</t>
+  </si>
+  <si>
+    <t>In-Charge (Research and Knowledge Management Cell)</t>
+  </si>
+  <si>
+    <t>dte.research.wing@gmail.com</t>
+  </si>
+  <si>
+    <t>Sultana Meheruna Zaman</t>
+  </si>
+  <si>
+    <t>Attached Officer (100 TS Project)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> meheruna1@gmail.com</t>
+  </si>
+  <si>
+    <t>A.K.M. Ferdous Khan</t>
+  </si>
+  <si>
+    <t>Equipment Officer (PIU)</t>
+  </si>
+  <si>
+    <t>02-8181000</t>
+  </si>
+  <si>
+    <t>ferdaus.dte@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr. Reza Hasan Mahmud</t>
+  </si>
+  <si>
+    <t>Attached Officer (Law)</t>
+  </si>
+  <si>
+    <t>rh_mahmud@yahoo.com</t>
+  </si>
+  <si>
+    <t>Md. Mahabub Alam</t>
+  </si>
+  <si>
+    <t>Equipment Officer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mahabub.dte@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Saiful Islam</t>
+  </si>
+  <si>
+    <t>Project Officer</t>
+  </si>
+  <si>
+    <t>saifulenvt@gmail.com</t>
+  </si>
+  <si>
+    <t>Khondaker Humayun Kabir</t>
+  </si>
+  <si>
+    <t>Attached Officer (Training)</t>
+  </si>
+  <si>
+    <t>training.dte.edu@gmail.com</t>
+  </si>
+  <si>
+    <t>Hasina Begum</t>
+  </si>
+  <si>
+    <t>Attached Officer (AD1)</t>
+  </si>
+  <si>
+    <t>02-8181229</t>
+  </si>
+  <si>
+    <t>hasina.pu@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rezwanul Haque</t>
+  </si>
+  <si>
+    <t>Equipment Officer (P&amp;D)</t>
+  </si>
+  <si>
+    <t>rezwan87haque@gmail.com</t>
+  </si>
+  <si>
+    <t>Mohammad Saiful Hoque Khan</t>
+  </si>
+  <si>
+    <t>Attached Officer (MPO)</t>
+  </si>
+  <si>
+    <t>saifultscbhairab@gmail.com</t>
+  </si>
+  <si>
+    <t>Biswajet Dey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Attached Officer (MPO)</t>
+  </si>
+  <si>
+    <t>deybiswajet@gmail.com</t>
+  </si>
+  <si>
+    <t>Mst. Masuma Khatun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> masuma0078@gmail.com</t>
+  </si>
+  <si>
+    <t>Benjir Ahmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> benjir95@gmail.com</t>
+  </si>
+  <si>
+    <t>Mohammad Shahrear Khan</t>
+  </si>
+  <si>
+    <t>shahrear.tsc@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Ikhlash Uddin</t>
+  </si>
+  <si>
+    <t>engrikhlas97356@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mohamed Kamruzzaman</t>
+  </si>
+  <si>
+    <t>Attached Officer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kamruzzamanspk@gmail.com</t>
+  </si>
+  <si>
+    <t>Kamruzzaman</t>
+  </si>
+  <si>
+    <t>01711-328269</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kamruzzaman320@gmail.com</t>
+  </si>
+  <si>
+    <t>Mst. Jesmin Akhter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Attached Officer</t>
+  </si>
+  <si>
+    <t>jesminakhter1973@gmail.com</t>
+  </si>
+  <si>
+    <t>A. K. M. Alauddin</t>
+  </si>
+  <si>
+    <t>Attached Officer (APA Implementation Cell)</t>
+  </si>
+  <si>
+    <t>alatsc@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hasan Mahmood Arif Saruare</t>
+  </si>
+  <si>
+    <t>Procurement Officer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hmahmood931@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Munalisa Poppy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Attached Officer [APA Implementation Cell]</t>
+  </si>
+  <si>
+    <t>poppymunalisa@yahoo.com</t>
+  </si>
+  <si>
+    <t>Bulbul Ahmad</t>
+  </si>
+  <si>
+    <t>Attached Officer (P. &amp; D.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bahmad09@gmail.com</t>
+  </si>
+  <si>
+    <t>Shakila Rahman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In-Charge (ICT Cell)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shakiladte@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Md. Ali Islam</t>
+  </si>
+  <si>
+    <t>Attached Officer (ICT Cell)</t>
+  </si>
+  <si>
+    <t>aliislam.dte@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sayful Islam</t>
+  </si>
+  <si>
+    <t>Attached Officer (P &amp; D)</t>
+  </si>
+  <si>
+    <t>sayful.dte@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shyamal Chandra Roy</t>
+  </si>
+  <si>
+    <t>Attached Officer (MPO Cell)</t>
+  </si>
+  <si>
+    <t>scroy2003@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madina Akter</t>
+  </si>
+  <si>
+    <t>Designated Officer [Research and Knowledge Management Cell]</t>
+  </si>
+  <si>
+    <t>Md. Ashif Iqbal</t>
+  </si>
+  <si>
+    <t>webmaster@rpi.gov.bd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Habiba Khatun</t>
+  </si>
+  <si>
+    <t>ankhi2010@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Mozammel Hoq</t>
+  </si>
+  <si>
+    <t>Administrative Officer</t>
+  </si>
+  <si>
+    <t>mozammalhoq1964@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Md. Sayeedul Islam</t>
+  </si>
+  <si>
+    <t>Attached Officer (PA to DG)</t>
+  </si>
+  <si>
+    <t>sayeedulislam71@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr. Md: Sirajul Islam</t>
+  </si>
+  <si>
+    <t>Joint Secretary &amp; PD (Fulltime), 1 in 100 upazilas
+Mechanical school and so on
+(TSC) Establishment Project</t>
+  </si>
+  <si>
+    <t>100ts.pd@gmail.com</t>
+  </si>
+  <si>
+    <t>Ministry of Expatriates’ Welfare and Overseas Employment</t>
+  </si>
+  <si>
+    <t>Syeda Shahana Bari</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> syedabari@yahoo.com</t>
+  </si>
+  <si>
+    <t>MD. Nazibul Islam</t>
+  </si>
+  <si>
+    <t>jstraining@probashi.gov.bd</t>
+  </si>
+  <si>
+    <t>Md. Shahidul Alam (NDC)</t>
+  </si>
+  <si>
+    <t>adsadmin@probashi.gov.bd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="00000000000"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,8 +1443,13 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Kalpurushregular"/>
+    </font>
+    <font>
       <b/>
-      <sz val="16"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1034,7 +1476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1045,13 +1487,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1338,10 +1789,10 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="28.140625" style="1" customWidth="1"/>
@@ -1351,16 +1802,16 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="25.5">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1377,7 +1828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1387,14 +1838,14 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1404,14 +1855,14 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1421,14 +1872,14 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1438,14 +1889,14 @@
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1455,14 +1906,14 @@
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1472,14 +1923,14 @@
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1489,12 +1940,12 @@
       <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1504,12 +1955,12 @@
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1519,14 +1970,14 @@
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1536,14 +1987,14 @@
       <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1553,12 +2004,12 @@
       <c r="C13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="30">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1568,14 +2019,14 @@
       <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="30">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1585,14 +2036,14 @@
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1602,14 +2053,14 @@
       <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="30">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1619,14 +2070,14 @@
       <c r="C17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="30">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1636,14 +2087,14 @@
       <c r="C18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="30">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1653,14 +2104,14 @@
       <c r="C19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1670,14 +2121,14 @@
       <c r="C20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1687,14 +2138,14 @@
       <c r="C21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="30">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1704,14 +2155,14 @@
       <c r="C22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="5" t="s">
         <v>98</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1721,14 +2172,14 @@
       <c r="C23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="45">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1738,14 +2189,14 @@
       <c r="C24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="5">
         <v>1716505871</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="30">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1755,14 +2206,14 @@
       <c r="C25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="5" t="s">
         <v>97</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="45">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1772,14 +2223,14 @@
       <c r="C26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="5" t="s">
         <v>91</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="45">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1789,14 +2240,14 @@
       <c r="C27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="5" t="s">
         <v>96</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1806,14 +2257,14 @@
       <c r="C28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="5">
         <v>1711353174</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="30">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1823,14 +2274,14 @@
       <c r="C29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="5" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="30">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1840,14 +2291,14 @@
       <c r="C30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="30">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1857,14 +2308,14 @@
       <c r="C31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="5">
         <v>1912553070</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="30">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1874,12 +2325,12 @@
       <c r="C32" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="30">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -1889,12 +2340,12 @@
       <c r="C33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -1904,12 +2355,12 @@
       <c r="C34" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="45">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -1919,14 +2370,14 @@
       <c r="C35" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="30">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -1936,14 +2387,14 @@
       <c r="C36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="5" t="s">
         <v>129</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="60">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -1953,12 +2404,12 @@
       <c r="C37" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="5" t="s">
         <v>132</v>
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="45">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -1968,12 +2419,12 @@
       <c r="C38" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="45">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -1983,14 +2434,14 @@
       <c r="C39" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="30">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -2000,14 +2451,14 @@
       <c r="C40" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="30">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -2017,12 +2468,12 @@
       <c r="C41" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="5">
         <v>1710052965</v>
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="30">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -2032,14 +2483,14 @@
       <c r="C42" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="30">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -2049,14 +2500,14 @@
       <c r="C43" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="30">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -2066,14 +2517,14 @@
       <c r="C44" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="5" t="s">
         <v>156</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="30">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -2083,14 +2534,14 @@
       <c r="C45" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="5" t="s">
         <v>160</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -2100,14 +2551,14 @@
       <c r="C46" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="30">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -2117,14 +2568,14 @@
       <c r="C47" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="60">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -2134,14 +2585,14 @@
       <c r="C48" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="5" t="s">
         <v>132</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="45">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -2151,14 +2602,14 @@
       <c r="C49" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="5" t="s">
         <v>173</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="45">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -2168,14 +2619,14 @@
       <c r="C50" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="5" t="s">
         <v>177</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -2185,14 +2636,14 @@
       <c r="C51" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="5" t="s">
         <v>181</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="30">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -2202,14 +2653,14 @@
       <c r="C52" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="5" t="s">
         <v>185</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="30">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -2219,14 +2670,14 @@
       <c r="C53" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="5" t="s">
         <v>190</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="30">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -2236,14 +2687,14 @@
       <c r="C54" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="5" t="s">
         <v>193</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="30">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -2253,14 +2704,14 @@
       <c r="C55" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="30">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -2270,14 +2721,14 @@
       <c r="C56" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="5" t="s">
         <v>201</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="30">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -2287,12 +2738,12 @@
       <c r="C57" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D57" s="2"/>
+      <c r="D57" s="5"/>
       <c r="E57" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="30">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -2302,14 +2753,14 @@
       <c r="C58" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="5">
         <v>1711904468</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="30">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -2319,154 +2770,154 @@
       <c r="C59" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2537,7 +2988,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2549,9 +3000,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2567,7 +3018,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2579,7 +3030,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2591,7 +3042,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2601,11 +3052,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5AA099-9F4D-4E1D-8EFE-F2723C89BCFC}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
@@ -2613,16 +3064,16 @@
     <col min="5" max="5" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" ht="25.5">
+      <c r="A1" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2639,7 +3090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2649,14 +3100,14 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2666,14 +3117,14 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2683,14 +3134,14 @@
       <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2700,14 +3151,14 @@
       <c r="C6" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>219</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2717,14 +3168,14 @@
       <c r="C7" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2734,14 +3185,14 @@
       <c r="C8" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2751,14 +3202,14 @@
       <c r="C9" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>231</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2768,14 +3219,14 @@
       <c r="C10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2785,14 +3236,14 @@
       <c r="C11" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>238</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2802,14 +3253,14 @@
       <c r="C12" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2819,14 +3270,14 @@
       <c r="C13" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="30">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2836,14 +3287,14 @@
       <c r="C14" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="5" t="s">
         <v>249</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="30">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2853,14 +3304,14 @@
       <c r="C15" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2870,14 +3321,14 @@
       <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="30">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2887,14 +3338,14 @@
       <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="30">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2904,12 +3355,12 @@
       <c r="C18" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="5" t="s">
         <v>258</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2919,14 +3370,14 @@
       <c r="C19" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="5">
         <v>1552474175</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2936,14 +3387,14 @@
       <c r="C20" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="30">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2953,14 +3404,14 @@
       <c r="C21" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="30">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2970,14 +3421,14 @@
       <c r="C22" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2987,12 +3438,12 @@
       <c r="C23" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="5" t="s">
         <v>275</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="30">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -3002,14 +3453,14 @@
       <c r="C24" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="30">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -3019,14 +3470,14 @@
       <c r="C25" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="5">
         <v>1911957212</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="30">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -3036,14 +3487,14 @@
       <c r="C26" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="5" t="s">
         <v>285</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="30">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -3053,14 +3504,14 @@
       <c r="C27" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="5" t="s">
         <v>289</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -3070,14 +3521,14 @@
       <c r="C28" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="5">
         <v>1918921714</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -3087,14 +3538,14 @@
       <c r="C29" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="5">
         <v>1718087122</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="30">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -3104,14 +3555,14 @@
       <c r="C30" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="5">
         <v>1674093875</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="30">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -3121,14 +3572,14 @@
       <c r="C31" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="5">
         <v>1918174611</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="30">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -3138,14 +3589,14 @@
       <c r="C32" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="5">
         <v>1746686138</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="30">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -3155,14 +3606,14 @@
       <c r="C33" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="5">
         <v>1817114653</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -3172,14 +3623,14 @@
       <c r="C34" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="5">
         <v>1642967727</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -3188,7 +3639,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -3197,7 +3648,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -3206,7 +3657,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -3215,7 +3666,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -3224,7 +3675,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -3233,7 +3684,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -3242,7 +3693,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -3251,7 +3702,7 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -3260,7 +3711,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -3269,7 +3720,7 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -3278,7 +3729,7 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -3287,7 +3738,7 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -3296,7 +3747,7 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -3305,7 +3756,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -3314,7 +3765,7 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -3323,7 +3774,7 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -3332,7 +3783,7 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -3341,7 +3792,7 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -3350,7 +3801,7 @@
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -3359,7 +3810,7 @@
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -3368,7 +3819,7 @@
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -3377,7 +3828,7 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -3421,24 +3872,1433 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E355C957-C9F2-4240-BF7D-3223C10FC84E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.5">
+      <c r="A1" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1716012963</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1718282283</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1712256087</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1716963935</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1712477953</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1711589488</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1715098868</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1716759677</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1914076071</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1717236059</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1716798204</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1711175441</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1715138149</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1711229231</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1716354707</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1914896148</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1680062206</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1992006196</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1711958068</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1992006199</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1716343839</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1715658341</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1712551323</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1862651964</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1679611808</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1711823942</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1712191160</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="45">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1814264815</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1718170556</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1711367119</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1733746200</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1611192119</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1712114095</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="60">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1722889336</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1714738013</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1992006200</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1837477100</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1992007300</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="105">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1711937897</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{5EB5241B-BE64-440D-9479-1BCCCD355848}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{6730EACA-56FC-48F9-9721-C8802FE31AB0}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{4CFAC5AE-417A-48DC-8B70-DC3095B5395A}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{9326BD4A-0DD6-4192-9B08-76E3BE77D108}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{8A440318-BDBD-440E-8C27-B496EBCE23EA}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{41FA3FF8-8A3E-4014-AED2-08D158BE0BC7}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{D1080F83-0CDD-427C-A547-3BCA9564102A}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{4D6E6A5A-9773-4CD1-9B50-E306CDC269D9}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{D48C6D51-557B-4673-8257-610582E83781}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{22B0B56D-D426-4ECC-93D5-7511A74B2CC8}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{C1BF1958-277E-4CE8-BACB-5DDA0D635E50}"/>
+    <hyperlink ref="E14" r:id="rId12" xr:uid="{F2FD9544-6F89-4707-B2C9-69A1A258F33F}"/>
+    <hyperlink ref="E15" r:id="rId13" xr:uid="{1094D24E-6D81-411A-A5C3-931CAE572223}"/>
+    <hyperlink ref="E16" r:id="rId14" xr:uid="{B02114C8-167D-4DC1-8357-345C4F57BB5A}"/>
+    <hyperlink ref="E17" r:id="rId15" xr:uid="{B54D87FF-5DD2-4A34-825F-54CB37A2FCA0}"/>
+    <hyperlink ref="E19" r:id="rId16" xr:uid="{3CD66552-C511-48C5-9091-B351BF5536F7}"/>
+    <hyperlink ref="E20" r:id="rId17" xr:uid="{98268A90-3794-45F6-9DA8-D464F8C28212}"/>
+    <hyperlink ref="E22" r:id="rId18" xr:uid="{CD6F09CD-DD58-4E01-A970-20FD7F817FE0}"/>
+    <hyperlink ref="E23" r:id="rId19" xr:uid="{65F6ABC9-1FE3-4908-907C-E7DD40FBB9C5}"/>
+    <hyperlink ref="E24" r:id="rId20" xr:uid="{6372E31A-AD9B-4740-B753-4D4F10FE56B7}"/>
+    <hyperlink ref="E25" r:id="rId21" xr:uid="{EA3C3E3C-EF2C-490D-BCD3-2E7BD927AF34}"/>
+    <hyperlink ref="E26" r:id="rId22" xr:uid="{618E0F64-BA06-4F9B-967B-ACBC3BD0D871}"/>
+    <hyperlink ref="E27" r:id="rId23" xr:uid="{1DB922FB-3472-495F-8595-4315B4FFE980}"/>
+    <hyperlink ref="E30" r:id="rId24" xr:uid="{DAB6DDD4-F144-45FF-A95A-6860E30395B0}"/>
+    <hyperlink ref="E31" r:id="rId25" xr:uid="{1B032934-D687-4507-BAEB-F841BCAE76DF}"/>
+    <hyperlink ref="E34" r:id="rId26" xr:uid="{5FB84208-A0B1-4E73-B6EC-646BE79C9F89}"/>
+    <hyperlink ref="E35" r:id="rId27" xr:uid="{CC0CF4A0-94B7-4504-A434-16D67406C89D}"/>
+    <hyperlink ref="E37" r:id="rId28" xr:uid="{0C3A95B0-E534-4DBE-831A-4458C1E47407}"/>
+    <hyperlink ref="E40" r:id="rId29" xr:uid="{D63197ED-7BA6-448D-BA80-07DEC694E6D7}"/>
+    <hyperlink ref="E41" r:id="rId30" xr:uid="{95DA8E73-8505-4B5E-8692-0F6D6F896557}"/>
+    <hyperlink ref="E42" r:id="rId31" xr:uid="{30163A50-DB9A-4824-95F6-F65BB9271296}"/>
+    <hyperlink ref="E44" r:id="rId32" xr:uid="{DFE939C2-0C6D-4906-BCFD-92ADC7F4959B}"/>
+    <hyperlink ref="E45" r:id="rId33" xr:uid="{4D09C3F9-5174-4684-BE73-9991C46B2041}"/>
+    <hyperlink ref="E46" r:id="rId34" xr:uid="{C932B464-8C4D-4BC6-A65C-D6A265A45ACE}"/>
+    <hyperlink ref="E47" r:id="rId35" xr:uid="{1A3B5C1A-537B-40F7-9CCA-2476A5B4BBE7}"/>
+    <hyperlink ref="E48" r:id="rId36" xr:uid="{2F7236B4-4619-4D7B-ACD2-38FC85876949}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9FE0DC-0546-4303-A31D-84FCDB11FAD1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.5">
+      <c r="A1" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1717150851</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1717525449</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1817319550</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{EE3C6140-B0DC-407E-B2BE-2F537063650A}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{FDB89D1E-E97D-49EA-8665-B4A004437B28}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3449,7 +5309,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3461,7 +5321,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3473,7 +5333,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3485,7 +5345,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3497,7 +5357,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
